--- a/R1day/Introduction to R workshop registration (Responses).xlsx
+++ b/R1day/Introduction to R workshop registration (Responses).xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://colostate-my.sharepoint.com/personal/c825033651_colostate_edu/Documents/Documents/GitHub/bgerber123.github.io/R1day/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_8E044FF96C7B2BBBD29A1534DE2528E350C2CA55" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{757730F2-E1DD-4E3A-9621-C3450B7AE3FD}"/>
+  <bookViews>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
   <si>
     <t>Timestamp</t>
   </si>
@@ -302,23 +311,27 @@
   </si>
   <si>
     <t>Incorporate R into my graduate project and future career endeavors</t>
+  </si>
+  <si>
+    <t>Not attending</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -329,40 +342,44 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -552,410 +569,419 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:H18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col customWidth="1" min="1" max="13" width="18.88"/>
+    <col min="2" max="14" width="18.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2">
-        <v>45475.95167466435</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B2" s="2">
+        <v>45475.951674664349</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2">
-        <v>45476.33626797453</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B3" s="2">
+        <v>45476.336267974533</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2">
-        <v>45476.4162072801</v>
-      </c>
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>45476.416207280097</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="2">
-        <v>45477.36699888889</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <v>45477.366998888887</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
         <v>45478.499426828705</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <v>45478.84259324074</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <v>45478.842593240741</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="2">
-        <v>45480.28037065972</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
+        <v>45480.280370659719</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="H8" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B9" s="2">
         <v>45481.478646435186</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="2">
-        <v>45481.50988277778</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B10" s="2">
+        <v>45481.509882777777</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="G10" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="2">
         <v>45481.711824212965</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="2">
-        <v>45483.7372081713</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B12" s="2">
+        <v>45483.737208171297</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="H12" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="2">
-        <v>45484.41249296296</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B13" s="2">
+        <v>45484.412492962962</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="G13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="H13" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B14" s="2">
         <v>45488.53248248843</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="2">
-        <v>45488.59103591435</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <v>45488.591035914353</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="G15" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="2">
-        <v>45488.79868998843</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="B16" s="2">
+        <v>45488.798689988427</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="G16" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="2">
-        <v>45489.56063766204</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="2">
+        <v>45489.560637662042</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="G17" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="2">
-        <v>45489.81739842593</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B18" s="2">
+        <v>45489.817398425927</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="G18" s="1" t="s">
         <v>96</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>